--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD73A64-5144-40FC-AF05-2016BF87073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326D8F7-3303-4EA5-A7ED-0AF4B236C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -107,7 +107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -192,7 +191,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:numRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -200,7 +199,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:numRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1267,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E0E6-48A8-41FC-B44B-6002F3B33E3F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1279,7 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,75 +1288,76 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6326D8F7-3303-4EA5-A7ED-0AF4B236C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD73A64-5144-40FC-AF05-2016BF87073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -107,6 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -191,7 +192,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:multiLvlStrRef>
+                  <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -199,7 +200,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:multiLvlStrRef>
+                  </c:numRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -1266,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E0E6-48A8-41FC-B44B-6002F3B33E3F}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1280,7 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,76 +1289,75 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD73A64-5144-40FC-AF05-2016BF87073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A9AE6-9756-4798-B793-4BB41046C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Misurazioni" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Misurazioni!$A$1:$B$23</definedName>
     <definedName name="Angoli">OFFSET(Misurazioni!$A$2:$A$401,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
     <definedName name="Coppia">OFFSET(Misurazioni!$B$2:$B$401,0,0,COUNTA(Misurazioni!$B:$B)-1,)</definedName>
-    <definedName name="Dati">OFFSET(Misurazioni!$A$1:$B$400,0,0,COUNTA(Misurazioni!$A:$A))</definedName>
+    <definedName name="Dati">OFFSET(Misurazioni!$A$2:$B$400,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,12 +44,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Angolo</t>
   </si>
   <si>
     <t>Coppia</t>
+  </si>
+  <si>
+    <t>Data misurazioni</t>
+  </si>
+  <si>
+    <t>0_x000D_</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -107,13 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,7 +136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -142,6 +147,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -151,6 +186,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Serie</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -175,37 +213,28 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>[0]!Coppia</c:f>
+              <c:f>[0]!Angoli</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!Angoli</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[0]!Angoli</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9200-482D-AC8C-55AA5ACAEB51}"/>
+              <c16:uniqueId val="{00000005-1452-4A86-914A-C996632015A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -341,15 +370,9 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -971,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1267,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E0E6-48A8-41FC-B44B-6002F3B33E3F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,16 +1310,18 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1349,12 +1374,18 @@
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>453</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66B8877-6586-4C48-BF56-0C99BE19E760}">
   <dimension ref="F8:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A9AE6-9756-4798-B793-4BB41046C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C8D84-3738-4B43-866B-E3E36AEA9637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Misurazioni" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Angolo</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>0_x000D_</t>
+  </si>
+  <si>
+    <t>Nome Valvola</t>
+  </si>
+  <si>
+    <t>ID Valvola</t>
+  </si>
+  <si>
+    <t>N. Misurazioni</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66B8877-6586-4C48-BF56-0C99BE19E760}">
   <dimension ref="F8:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1419,16 +1428,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E35BC6E-D48E-43AA-B74F-786AE2B7B495}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C8D84-3738-4B43-866B-E3E36AEA9637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F4B275-68F9-4E8B-929C-B91465E39579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Angolo</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>N. Misurazioni</t>
+  </si>
+  <si>
+    <t>Misurazioni compromesse</t>
   </si>
 </sst>
 </file>
@@ -1428,19 +1431,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E35BC6E-D48E-43AA-B74F-786AE2B7B495}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1449,6 +1453,9 @@
       </c>
       <c r="C1" t="s">
         <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\OneDrive\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F4B275-68F9-4E8B-929C-B91465E39579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72685C0-A49B-451B-A35C-7E1D41CF61C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Misurazioni" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Misurazioni!$A$1:$B$23</definedName>
     <definedName name="Angoli">OFFSET(Misurazioni!$A$2:$A$401,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
     <definedName name="Coppia">OFFSET(Misurazioni!$B$2:$B$401,0,0,COUNTA(Misurazioni!$B:$B)-1,)</definedName>
     <definedName name="Dati">OFFSET(Misurazioni!$A$2:$B$400,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
@@ -55,7 +54,8 @@
     <t>Data misurazioni</t>
   </si>
   <si>
-    <t>0_x000D_</t>
+    <t xml:space="preserve">0
+</t>
   </si>
   <si>
     <t>Nome Valvola</t>
@@ -130,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,7 +148,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1304,18 +1304,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E0E6-48A8-41FC-B44B-6002F3B33E3F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,72 +1325,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>453</v>
       </c>
@@ -1412,15 +1411,15 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L8" s="1"/>
     </row>
-    <row r="13" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="12:15" x14ac:dyDescent="0.25">
       <c r="O13" s="3"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1"/>
     </row>
   </sheetData>
@@ -1433,18 +1432,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E35BC6E-D48E-43AA-B74F-786AE2B7B495}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="1" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\Gruppo-Oil_progetto-Omb-Vales\Informatica\GruppoOilPrototipo\bin\Debug\Misurazioni\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72685C0-A49B-451B-A35C-7E1D41CF61C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D22987AD-16C1-4A34-B077-E291DE592DA1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Misurazioni" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafico" sheetId="2" r:id="rId2"/>
-    <sheet name="Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Apertura" sheetId="1" r:id="rId1"/>
+    <sheet name="Chiusura" sheetId="4" r:id="rId2"/>
+    <sheet name="Grafico" sheetId="2" r:id="rId3"/>
+    <sheet name="Info" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Angoli">OFFSET(Misurazioni!$A$2:$A$401,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
-    <definedName name="Coppia">OFFSET(Misurazioni!$B$2:$B$401,0,0,COUNTA(Misurazioni!$B:$B)-1,)</definedName>
-    <definedName name="Dati">OFFSET(Misurazioni!$A$2:$B$400,0,0,COUNTA(Misurazioni!$A:$A)-1,)</definedName>
+    <definedName name="Angoli">OFFSET(Apertura!$A$2:$A$401,0,0,COUNTA(Apertura!$A:$A)-1,)</definedName>
+    <definedName name="Coppia">OFFSET(Apertura!$B$2:$B$401,0,0,COUNTA(Apertura!$B:$B)-1,)</definedName>
+    <definedName name="Dati">OFFSET(Apertura!$A$2:$B$400,0,0,COUNTA(Apertura!$A:$A)-1,)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Angolo</t>
   </si>
@@ -54,27 +49,20 @@
     <t>Data misurazioni</t>
   </si>
   <si>
-    <t xml:space="preserve">0
-</t>
-  </si>
-  <si>
-    <t>Nome Valvola</t>
-  </si>
-  <si>
-    <t>ID Valvola</t>
-  </si>
-  <si>
     <t>N. Misurazioni</t>
   </si>
   <si>
     <t>Misurazioni compromesse</t>
   </si>
+  <si>
+    <t>Seriale valvola</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,21 +134,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -189,12 +167,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -243,36 +219,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1452-4A86-914A-C996632015A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1609983760"/>
-        <c:axId val="1609983280"/>
+        <c:axId val="121789824"/>
+        <c:axId val="121803904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1609983760"/>
+        <c:axId val="121789824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -307,21 +271,19 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1609983280"/>
+        <c:crossAx val="121803904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1609983280"/>
+        <c:axId val="121803904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -339,7 +301,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -368,7 +329,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1609983760"/>
+        <c:crossAx val="121789824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -383,8 +344,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -413,7 +373,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -982,7 +942,7 @@
         <xdr:cNvPr id="14" name="Grafico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F487C41-D346-4C72-9852-81841429CC97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F487C41-D346-4C72-9852-81841429CC97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +1008,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1100,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1294,27 +1254,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E0E6-48A8-41FC-B44B-6002F3B33E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1325,77 +1285,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="C14" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="D16" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>453</v>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B29" t="s">
-        <v>3</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1403,23 +1385,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66B8877-6586-4C48-BF56-0C99BE19E760}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F8:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="12:15">
       <c r="L8" s="1"/>
     </row>
-    <row r="13" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:15">
       <c r="O13" s="3"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6">
       <c r="F25" s="1"/>
     </row>
   </sheetData>
@@ -1428,33 +1410,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E35BC6E-D48E-43AA-B74F-786AE2B7B495}">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
+++ b/Informatica/GruppoOilPrototipo/bin/Debug/Misurazioni/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3645" yWindow="-225" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Apertura" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Serie</c:v>
+            <c:v>Apertura</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -203,19 +203,19 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>[0]!Angoli</c:f>
+              <c:f>Apertura!$A$3:$A$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="179"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!Angoli</c:f>
+              <c:f>Apertura!$B$3:$B$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="179"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -226,11 +226,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121789824"/>
-        <c:axId val="121803904"/>
+        <c:axId val="103817600"/>
+        <c:axId val="103819520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121789824"/>
+        <c:axId val="103817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -271,14 +271,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121803904"/>
+        <c:crossAx val="103819520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121803904"/>
+        <c:axId val="103819520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1500"/>
@@ -329,7 +329,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121789824"/>
+        <c:crossAx val="103817600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -373,7 +373,253 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Chiusura</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Chiusura!$A$3:$A$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="179"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chiusura!$B$3:$B$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="179"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1452-4A86-914A-C996632015A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="103851520"/>
+        <c:axId val="103853440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103851520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103853440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103853440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103851520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="sng"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -957,6 +1203,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F487C41-D346-4C72-9852-81841429CC97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1264,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1387,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F8:O25"/>
+  <dimension ref="F8:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,12 +1685,16 @@
     <row r="13" spans="12:15">
       <c r="O13" s="3"/>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:11">
       <c r="F25" s="1"/>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
